--- a/TestDataforSignUpFeature.xlsx
+++ b/TestDataforSignUpFeature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khait\IdeaProjects\bdd-sprint3-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E25CDB-4AB9-4C57-899C-9C86E041EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524F9697-7FA7-4864-812F-BC69FEE8F4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="3990" windowWidth="16920" windowHeight="9440" xr2:uid="{8231E31C-7F69-4183-948E-CB53CED8EBA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8231E31C-7F69-4183-948E-CB53CED8EBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>First_name</t>
   </si>
@@ -411,16 +411,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>cmcmeekan01@netvibes.com</t>
-  </si>
-  <si>
-    <t>cbreckenridge13@google.com</t>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>cmcmeekan02@netvibes.com</t>
+  </si>
+  <si>
+    <t>cbreckenridge22@google.com</t>
   </si>
   <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
   </si>
 </sst>
 </file>
@@ -480,11 +480,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +803,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,43 +837,43 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>127</v>
+      <c r="F3" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -890,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -908,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -926,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -944,7 +945,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -962,7 +963,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,7 +981,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -998,7 +999,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1016,7 +1017,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1034,7 +1035,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1052,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1070,7 +1071,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1088,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1106,7 +1107,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1124,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,7 +1143,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1160,7 +1161,7 @@
         <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1178,7 +1179,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1196,7 +1197,7 @@
         <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1214,7 +1215,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1232,7 +1233,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1250,7 +1251,7 @@
         <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1268,7 +1269,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1286,7 +1287,7 @@
         <v>102</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1304,7 +1305,7 @@
         <v>106</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1322,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1340,7 +1341,7 @@
         <v>114</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1358,7 +1359,7 @@
         <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1376,7 +1377,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1386,7 +1387,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1396,10 +1397,11 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestDataforSignUpFeature.xlsx
+++ b/TestDataforSignUpFeature.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khait\IdeaProjects\bdd-sprint3-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524F9697-7FA7-4864-812F-BC69FEE8F4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4ECF95-ECF5-49A2-9E18-8FECB1FA8712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8231E31C-7F69-4183-948E-CB53CED8EBA9}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>First_name</t>
   </si>
@@ -411,23 +411,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>cmcmeekan02@netvibes.com</t>
-  </si>
-  <si>
-    <t>cbreckenridge22@google.com</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>cmcmeekan155@netvibes.com</t>
+  </si>
+  <si>
+    <t>cbreckenridge000@google.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,17 +796,17 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.36328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.36328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.81640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.36328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.81640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -837,9 +830,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -847,19 +838,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -867,14 +854,12 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -890,12 +875,12 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,12 +893,12 @@
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -926,9 +911,7 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
@@ -944,9 +927,7 @@
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -962,9 +943,7 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -980,9 +959,7 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -998,9 +975,7 @@
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -1016,9 +991,7 @@
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -1034,9 +1007,7 @@
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -1052,9 +1023,7 @@
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -1070,9 +1039,7 @@
       <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1088,9 +1055,7 @@
       <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -1106,9 +1071,7 @@
       <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
@@ -1124,9 +1087,7 @@
       <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
@@ -1142,9 +1103,7 @@
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
@@ -1160,9 +1119,7 @@
       <c r="E19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
@@ -1178,9 +1135,7 @@
       <c r="E20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
@@ -1196,9 +1151,7 @@
       <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1214,9 +1167,7 @@
       <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
@@ -1232,9 +1183,7 @@
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -1250,9 +1199,7 @@
       <c r="E24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1268,9 +1215,7 @@
       <c r="E25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
@@ -1286,9 +1231,7 @@
       <c r="E26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
@@ -1304,9 +1247,7 @@
       <c r="E27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
@@ -1322,9 +1263,7 @@
       <c r="E28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
@@ -1340,9 +1279,7 @@
       <c r="E29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
@@ -1358,9 +1295,7 @@
       <c r="E30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
@@ -1376,9 +1311,7 @@
       <c r="E31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
@@ -1386,9 +1319,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1396,9 +1327,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDataforSignUpFeature.xlsx
+++ b/TestDataforSignUpFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khait\IdeaProjects\bdd-sprint3-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4ECF95-ECF5-49A2-9E18-8FECB1FA8712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F050151A-3CEB-48D4-9E7D-23AD585869D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8231E31C-7F69-4183-948E-CB53CED8EBA9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t>First_name</t>
   </si>
@@ -796,7 +796,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,9 +878,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -896,9 +894,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
@@ -914,7 +910,9 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -930,7 +928,9 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -946,7 +946,9 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -978,7 +982,9 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>

--- a/TestDataforSignUpFeature.xlsx
+++ b/TestDataforSignUpFeature.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khait\IdeaProjects\bdd-sprint3-framework\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>First_name</t>
   </si>
@@ -415,12 +415,19 @@
   </si>
   <si>
     <t>cbreckenridge000@google.com</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,12 +808,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.36328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.81640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.36328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -843,7 +850,9 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -859,7 +868,9 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -875,7 +886,9 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -891,7 +904,9 @@
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -907,7 +922,9 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -925,7 +942,9 @@
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -943,7 +962,9 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -961,7 +982,9 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -979,7 +1002,9 @@
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -997,7 +1022,9 @@
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -1013,7 +1040,9 @@
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -1029,7 +1058,9 @@
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -1045,7 +1076,9 @@
       <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1061,7 +1094,9 @@
       <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -1077,7 +1112,9 @@
       <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
@@ -1093,7 +1130,9 @@
       <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
@@ -1109,7 +1148,9 @@
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
@@ -1125,7 +1166,9 @@
       <c r="E19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
@@ -1141,7 +1184,9 @@
       <c r="E20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
@@ -1157,7 +1202,9 @@
       <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -1173,7 +1220,9 @@
       <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
@@ -1189,7 +1238,9 @@
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
@@ -1205,7 +1256,9 @@
       <c r="E24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
@@ -1221,7 +1274,9 @@
       <c r="E25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
@@ -1237,7 +1292,9 @@
       <c r="E26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
@@ -1253,7 +1310,9 @@
       <c r="E27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
@@ -1269,7 +1328,9 @@
       <c r="E28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
@@ -1285,7 +1346,9 @@
       <c r="E29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
@@ -1301,7 +1364,9 @@
       <c r="E30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
@@ -1317,7 +1382,9 @@
       <c r="E31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
@@ -1325,7 +1392,9 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
@@ -1333,7 +1402,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDataforSignUpFeature.xlsx
+++ b/TestDataforSignUpFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khait\IdeaProjects\bdd-sprint3-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F050151A-3CEB-48D4-9E7D-23AD585869D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524F9697-7FA7-4864-812F-BC69FEE8F4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8231E31C-7F69-4183-948E-CB53CED8EBA9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="129">
   <si>
     <t>First_name</t>
   </si>
@@ -411,13 +411,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>cmcmeekan155@netvibes.com</t>
-  </si>
-  <si>
-    <t>cbreckenridge000@google.com</t>
-  </si>
-  <si>
     <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>cmcmeekan02@netvibes.com</t>
+  </si>
+  <si>
+    <t>cbreckenridge22@google.com</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -803,7 +803,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,7 +837,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -845,17 +847,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -863,13 +867,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -887,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -905,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -923,13 +927,11 @@
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -943,13 +945,11 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -963,13 +963,11 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -983,13 +981,11 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1003,13 +999,11 @@
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1023,7 +1017,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1041,7 +1035,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1059,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1077,7 +1071,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1095,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1113,7 +1107,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1131,7 +1125,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1149,7 +1143,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1167,7 +1161,7 @@
         <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1185,7 +1179,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1203,7 +1197,7 @@
         <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1221,7 +1215,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1239,7 +1233,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1257,7 +1251,7 @@
         <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1275,7 +1269,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1293,7 +1287,7 @@
         <v>102</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1311,7 +1305,7 @@
         <v>106</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1329,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1347,7 +1341,7 @@
         <v>114</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1365,7 +1359,7 @@
         <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1383,7 +1377,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1393,7 +1387,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1403,7 +1397,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
